--- a/TestData/All xlsx files/addNewHost.xlsx
+++ b/TestData/All xlsx files/addNewHost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\All xlsx files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568795CF-00F1-420D-8BB6-FF8DA0042370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE6C57-68F8-4A8D-AD6C-761DAA7C8F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Wave Name</t>
   </si>
@@ -36,42 +36,9 @@
     <t>Target Type</t>
   </si>
   <si>
-    <t>Source - DNS Name / IP Address</t>
-  </si>
-  <si>
-    <t>Source - Friendly Name</t>
-  </si>
-  <si>
-    <t>Source - OS</t>
-  </si>
-  <si>
-    <t>Source - SSH Port</t>
-  </si>
-  <si>
-    <t>Source - Use name</t>
-  </si>
-  <si>
     <t>Sync Type</t>
   </si>
   <si>
-    <t>Target - Friendly Name</t>
-  </si>
-  <si>
-    <t>Target - Image Name</t>
-  </si>
-  <si>
-    <t>Target - DNS Name / IP Address</t>
-  </si>
-  <si>
-    <t>Target - Source User/Password</t>
-  </si>
-  <si>
-    <t>Target - Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target - SSH Port </t>
-  </si>
-  <si>
     <t>WithoutHost1</t>
   </si>
   <si>
@@ -97,6 +64,36 @@
   </si>
   <si>
     <t>admin-img</t>
+  </si>
+  <si>
+    <t>DNS Name / IP Address</t>
+  </si>
+  <si>
+    <t>Friendly Name</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>SSH Port</t>
+  </si>
+  <si>
+    <t>Use name</t>
+  </si>
+  <si>
+    <t>Image Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DNS Name / IP Address</t>
+  </si>
+  <si>
+    <t>Source User/Password</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSH Port </t>
   </si>
 </sst>
 </file>
@@ -432,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O2"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,18 +438,17 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -466,75 +462,75 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
